--- a/data_excel/929.xlsx
+++ b/data_excel/929.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kokoronight\Desktop\前400題example excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ailab-master\ailab-master\ai-lab\data_excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -105,15 +105,15 @@
     <t>=</t>
   </si>
   <si>
-    <t>-</t>
+    <t>=</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>-</t>
+    <t>+</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>=</t>
+    <t>+</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -501,7 +501,7 @@
   <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" activeCellId="2" sqref="G4 C9 C2"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -534,7 +534,7 @@
         <v>6</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E2" t="s">
         <v>7</v>
@@ -583,7 +583,7 @@
         <v>6</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -671,7 +671,7 @@
         <v>6</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">

--- a/data_excel/929.xlsx
+++ b/data_excel/929.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="32">
   <si>
     <t>哥哥</t>
   </si>
@@ -37,9 +37,6 @@
   </si>
   <si>
     <t>吃</t>
-  </si>
-  <si>
-    <t>v</t>
   </si>
   <si>
     <t>人</t>
@@ -114,6 +111,14 @@
   </si>
   <si>
     <t>+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>spv</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>spv</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -187,7 +192,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -196,6 +201,7 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -501,7 +507,7 @@
   <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -523,129 +529,129 @@
         <v>4</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>5</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E2" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>7</v>
       </c>
-      <c r="F2" t="s">
-        <v>8</v>
-      </c>
       <c r="G2" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" t="s">
         <v>9</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>10</v>
       </c>
-      <c r="C3" t="s">
+      <c r="E3" t="s">
         <v>11</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>12</v>
       </c>
-      <c r="F3" t="s">
-        <v>13</v>
-      </c>
       <c r="G3" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B4" t="s">
         <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E4" t="s">
         <v>5</v>
       </c>
-      <c r="F4" t="s">
-        <v>6</v>
+      <c r="F4" s="4" t="s">
+        <v>30</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" t="s">
         <v>16</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>17</v>
       </c>
-      <c r="C5" t="s">
-        <v>18</v>
-      </c>
       <c r="E5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" t="s">
         <v>9</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" s="1" t="s">
         <v>10</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" t="s">
         <v>19</v>
       </c>
-      <c r="B6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" t="s">
+      <c r="E6" t="s">
         <v>20</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
         <v>21</v>
       </c>
-      <c r="F6" t="s">
-        <v>22</v>
-      </c>
       <c r="G6" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" t="s">
         <v>23</v>
       </c>
-      <c r="B7" t="s">
-        <v>24</v>
-      </c>
       <c r="E7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" t="s">
         <v>16</v>
       </c>
-      <c r="F7" t="s">
+      <c r="G7" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B8" t="s">
         <v>1</v>
@@ -654,68 +660,68 @@
         <v>2</v>
       </c>
       <c r="E8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F8" t="s">
+        <v>7</v>
+      </c>
+      <c r="G8" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="F8" t="s">
-        <v>8</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>5</v>
       </c>
-      <c r="B9" t="s">
-        <v>6</v>
+      <c r="B9" s="4" t="s">
+        <v>31</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
         <v>9</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C10" t="s">
         <v>10</v>
-      </c>
-      <c r="C10" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B11" t="s">
         <v>4</v>
       </c>
       <c r="C11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" t="s">
         <v>16</v>
       </c>
-      <c r="B12" t="s">
+      <c r="C12" t="s">
         <v>17</v>
-      </c>
-      <c r="C12" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" t="s">
         <v>19</v>
-      </c>
-      <c r="B13" t="s">
-        <v>8</v>
-      </c>
-      <c r="C13" t="s">
-        <v>20</v>
       </c>
     </row>
   </sheetData>
